--- a/data/waterbalance.xlsx
+++ b/data/waterbalance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bham-my.sharepoint.com/personal/sxl1405_student_bham_ac_uk/Documents/uplb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bham-my.sharepoint.com/personal/sxl1405_student_bham_ac_uk/Documents/uplb/upriis_gw/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{8794D628-2293-4DBC-B7B7-3ABFDF00877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B19281D8-BDC9-EE42-B0E2-7AB3501695EF}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{8794D628-2293-4DBC-B7B7-3ABFDF00877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{145243BA-7847-4240-BA87-664EF04086DB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHIRPS_BiasCorrect" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Percolation per month" sheetId="3" r:id="rId4"/>
     <sheet name="ET_a" sheetId="6" r:id="rId5"/>
     <sheet name="Water Delivered" sheetId="7" r:id="rId6"/>
-    <sheet name="summary" sheetId="5" r:id="rId7"/>
+    <sheet name="summary_raw" sheetId="5" r:id="rId7"/>
+    <sheet name="summary" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -207,9 +208,6 @@
     <t>ET_a</t>
   </si>
   <si>
-    <t>Perc.</t>
-  </si>
-  <si>
     <t>18,19,21,22</t>
   </si>
   <si>
@@ -276,25 +274,10 @@
     <t>Note:Total (mm/month)</t>
   </si>
   <si>
-    <t>Out</t>
-  </si>
-  <si>
     <t>Total CMS</t>
   </si>
   <si>
     <t>Total (mm)</t>
-  </si>
-  <si>
-    <t>Water delivered</t>
-  </si>
-  <si>
-    <t>Groundwater Abstraction</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net </t>
   </si>
   <si>
     <t xml:space="preserve">AVERAGE </t>
@@ -303,10 +286,40 @@
     <t>P_area_mm</t>
   </si>
   <si>
-    <t>P_area</t>
+    <t>Annual</t>
   </si>
   <si>
-    <t>Annual</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>peff</t>
+  </si>
+  <si>
+    <t>perc</t>
+  </si>
+  <si>
+    <t>irrig</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>gw_abs</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -427,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -473,6 +486,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,6 +504,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29541,7 +29561,7 @@
       </c>
       <c r="CE1" s="14"/>
       <c r="CF1" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
@@ -58182,10 +58202,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -59313,22 +59333,22 @@
         <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
       <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
-      </c>
-      <c r="M1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -59346,7 +59366,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="5">
         <v>2.5</v>
@@ -59381,7 +59401,7 @@
         <v>72.457578639837166</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="5">
         <v>2.4900000000000002</v>
@@ -59416,7 +59436,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5">
         <v>7.26</v>
@@ -59451,7 +59471,7 @@
         <v>77.633119971254104</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="5">
         <v>1.98</v>
@@ -59486,7 +59506,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="5">
         <v>3.78</v>
@@ -59563,19 +59583,19 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -59591,7 +59611,7 @@
         <v>77.633119971254104</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10">
         <v>32472875.32</v>
@@ -59619,7 +59639,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11">
         <v>5599974.4119999995</v>
@@ -59647,7 +59667,7 @@
         <v>77.633119971254104</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>17082601.100000001</v>
@@ -59675,7 +59695,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13">
         <v>34097941.340000004</v>
@@ -59705,7 +59725,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14">
         <v>195148106.69999999</v>
@@ -59733,7 +59753,7 @@
         <v>75.045349305545628</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15">
         <v>34161774.899999999</v>
@@ -59761,7 +59781,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16">
         <v>2411433.983</v>
@@ -59789,7 +59809,7 @@
         <v>77.633119971254104</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17">
         <v>1135706.1850000001</v>
@@ -59817,7 +59837,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18">
         <v>480921.56</v>
@@ -59845,7 +59865,7 @@
         <v>77.633119971254104</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19">
         <v>20749518.629999999</v>
@@ -59873,7 +59893,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20">
         <v>1844248.97</v>
@@ -59901,7 +59921,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21">
         <v>4729728.9000000004</v>
@@ -59929,7 +59949,7 @@
         <v>77.633119971254104</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22">
         <v>135298846.80000001</v>
@@ -59957,7 +59977,7 @@
         <v>80.220890636962565</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23">
         <v>23095142.809999999</v>
@@ -59985,7 +60005,7 @@
         <v>77.633119971254104</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24">
         <v>36936962.210000001</v>
@@ -61001,7 +61021,7 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -61553,7 +61573,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
@@ -61596,10 +61616,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -62406,11 +62426,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF583AE3-BC6C-4A51-AC09-42DEB3C31575}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="A1:J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -62421,40 +62441,40 @@
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>2015</v>
       </c>
       <c r="B2">
@@ -62466,14 +62486,22 @@
       <c r="D2">
         <v>25.098505086332001</v>
       </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
       <c r="F2">
         <v>80.220890636962565</v>
       </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
       <c r="H2" s="11"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21">
+        <v>2015</v>
+      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -62483,14 +62511,22 @@
       <c r="D3">
         <v>0.68764592256347401</v>
       </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
       <c r="F3">
         <v>72.457578639837166</v>
       </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21">
+        <v>2015</v>
+      </c>
       <c r="B4">
         <v>3</v>
       </c>
@@ -62500,14 +62536,22 @@
       <c r="D4">
         <v>0.633335732252995</v>
       </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
       <c r="F4">
         <v>80.220890636962565</v>
       </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21">
+        <v>2015</v>
+      </c>
       <c r="B5">
         <v>4</v>
       </c>
@@ -62517,14 +62561,22 @@
       <c r="D5">
         <v>9.8656357006706408</v>
       </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
       <c r="F5">
         <v>77.633119971254104</v>
       </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21">
+        <v>2015</v>
+      </c>
       <c r="B6">
         <v>5</v>
       </c>
@@ -62534,14 +62586,22 @@
       <c r="D6">
         <v>47.776651444671103</v>
       </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
       <c r="F6">
         <v>80.220890636962565</v>
       </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21">
+        <v>2015</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
@@ -62551,14 +62611,22 @@
       <c r="D7">
         <v>121.06099309609201</v>
       </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
       <c r="F7">
         <v>77.633119971254104</v>
       </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21">
+        <v>2015</v>
+      </c>
       <c r="B8">
         <v>7</v>
       </c>
@@ -62568,14 +62636,22 @@
       <c r="D8">
         <v>159.15139044806</v>
       </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
       <c r="F8">
         <v>80.220890636962565</v>
       </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21">
+        <v>2015</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
@@ -62585,14 +62661,22 @@
       <c r="D9">
         <v>154.23227265978099</v>
       </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
       <c r="F9">
         <v>80.220890636962565</v>
       </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21">
+        <v>2015</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
@@ -62602,14 +62686,22 @@
       <c r="D10">
         <v>141.62586209944601</v>
       </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
       <c r="F10">
         <v>77.633119971254104</v>
       </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21">
+        <v>2015</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -62619,14 +62711,22 @@
       <c r="D11">
         <v>112.32113744615999</v>
       </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
       <c r="F11">
         <v>80.220890636962565</v>
       </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21">
+        <v>2015</v>
+      </c>
       <c r="B12">
         <v>11</v>
       </c>
@@ -62636,14 +62736,22 @@
       <c r="D12">
         <v>6.8063232121990103</v>
       </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
       <c r="F12">
         <v>77.633119971254104</v>
       </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21">
+        <v>2015</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>
@@ -62653,14 +62761,20 @@
       <c r="D13">
         <v>11.721029703819299</v>
       </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
       <c r="F13">
         <v>80.220890636962565</v>
       </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>2016</v>
       </c>
       <c r="B14">
@@ -62672,14 +62786,22 @@
       <c r="D14">
         <v>9.7303900519578796</v>
       </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
       <c r="F14">
         <v>80.220890636962565</v>
       </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21">
+        <v>2016</v>
+      </c>
       <c r="B15">
         <v>2</v>
       </c>
@@ -62689,14 +62811,22 @@
       <c r="D15">
         <v>1.0749731883878599</v>
       </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
       <c r="F15">
         <v>75.045349305545628</v>
       </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21">
+        <v>2016</v>
+      </c>
       <c r="B16">
         <v>3</v>
       </c>
@@ -62706,14 +62836,22 @@
       <c r="D16">
         <v>1.8783663742016401</v>
       </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
       <c r="F16">
         <v>80.220890636962565</v>
       </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21">
+        <v>2016</v>
+      </c>
       <c r="B17">
         <v>4</v>
       </c>
@@ -62723,14 +62861,22 @@
       <c r="D17">
         <v>7.2257295035033797</v>
       </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
       <c r="F17">
         <v>77.633119971254104</v>
       </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21">
+        <v>2016</v>
+      </c>
       <c r="B18">
         <v>5</v>
       </c>
@@ -62740,14 +62886,22 @@
       <c r="D18">
         <v>85.384864220786497</v>
       </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
       <c r="F18">
         <v>80.220890636962565</v>
       </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21">
+        <v>2016</v>
+      </c>
       <c r="B19">
         <v>6</v>
       </c>
@@ -62757,14 +62911,22 @@
       <c r="D19">
         <v>146.257849748838</v>
       </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
       <c r="F19">
         <v>77.633119971254104</v>
       </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21">
+        <v>2016</v>
+      </c>
       <c r="B20">
         <v>7</v>
       </c>
@@ -62774,14 +62936,22 @@
       <c r="D20">
         <v>143.40114523673299</v>
       </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
       <c r="F20">
         <v>80.220890636962565</v>
       </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21">
+        <v>2016</v>
+      </c>
       <c r="B21">
         <v>8</v>
       </c>
@@ -62791,14 +62961,22 @@
       <c r="D21">
         <v>166.41342720392299</v>
       </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
       <c r="F21">
         <v>80.220890636962565</v>
       </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="11"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21">
+        <v>2016</v>
+      </c>
       <c r="B22">
         <v>9</v>
       </c>
@@ -62808,14 +62986,22 @@
       <c r="D22">
         <v>154.52057469753501</v>
       </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
       <c r="F22">
         <v>77.633119971254104</v>
       </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21">
+        <v>2016</v>
+      </c>
       <c r="B23">
         <v>10</v>
       </c>
@@ -62825,14 +63011,22 @@
       <c r="D23">
         <v>142.33209227499199</v>
       </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
       <c r="F23">
         <v>80.220890636962565</v>
       </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21">
+        <v>2016</v>
+      </c>
       <c r="B24">
         <v>11</v>
       </c>
@@ -62842,14 +63036,22 @@
       <c r="D24">
         <v>102.54856775611201</v>
       </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
       <c r="F24">
         <v>77.633119971254104</v>
       </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21">
+        <v>2016</v>
+      </c>
       <c r="B25">
         <v>12</v>
       </c>
@@ -62859,14 +63061,20 @@
       <c r="D25">
         <v>5.4301444830654599</v>
       </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
       <c r="F25">
         <v>80.220890636962565</v>
       </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <v>2017</v>
       </c>
       <c r="B26">
@@ -62878,14 +63086,22 @@
       <c r="D26">
         <v>52.618893928029699</v>
       </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
       <c r="F26">
         <v>80.220890636962565</v>
       </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21">
+        <v>2017</v>
+      </c>
       <c r="B27">
         <v>2</v>
       </c>
@@ -62895,14 +63111,22 @@
       <c r="D27">
         <v>2.9689753001663801</v>
       </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
       <c r="F27">
         <v>72.457578639837166</v>
       </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21">
+        <v>2017</v>
+      </c>
       <c r="B28">
         <v>3</v>
       </c>
@@ -62912,14 +63136,22 @@
       <c r="D28">
         <v>1.3572339407192</v>
       </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
       <c r="F28">
         <v>80.220890636962565</v>
       </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21">
+        <v>2017</v>
+      </c>
       <c r="B29">
         <v>4</v>
       </c>
@@ -62929,14 +63161,22 @@
       <c r="D29">
         <v>13.135810096686299</v>
       </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
       <c r="F29">
         <v>77.633119971254104</v>
       </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21">
+        <v>2017</v>
+      </c>
       <c r="B30">
         <v>5</v>
       </c>
@@ -62946,14 +63186,22 @@
       <c r="D30">
         <v>99.414446380139594</v>
       </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
       <c r="F30">
         <v>80.220890636962565</v>
       </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21">
+        <v>2017</v>
+      </c>
       <c r="B31">
         <v>6</v>
       </c>
@@ -62963,14 +63211,22 @@
       <c r="D31">
         <v>133.97209273218201</v>
       </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
       <c r="F31">
         <v>77.633119971254104</v>
       </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21">
+        <v>2017</v>
+      </c>
       <c r="B32">
         <v>7</v>
       </c>
@@ -62980,14 +63236,22 @@
       <c r="D32">
         <v>151.73042203988899</v>
       </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
       <c r="F32">
         <v>80.220890636962565</v>
       </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21">
+        <v>2017</v>
+      </c>
       <c r="B33">
         <v>8</v>
       </c>
@@ -62997,14 +63261,22 @@
       <c r="D33">
         <v>165.069286062982</v>
       </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
       <c r="F33">
         <v>80.220890636962565</v>
       </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
       <c r="H33" s="11"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21">
+        <v>2017</v>
+      </c>
       <c r="B34">
         <v>9</v>
       </c>
@@ -63014,14 +63286,22 @@
       <c r="D34">
         <v>157.185609681584</v>
       </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
       <c r="F34">
         <v>77.633119971254104</v>
       </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21">
+        <v>2017</v>
+      </c>
       <c r="B35">
         <v>10</v>
       </c>
@@ -63031,14 +63311,22 @@
       <c r="D35">
         <v>93.562447217663106</v>
       </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
       <c r="F35">
         <v>80.220890636962565</v>
       </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
       <c r="H35" s="11"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21">
+        <v>2017</v>
+      </c>
       <c r="B36">
         <v>11</v>
       </c>
@@ -63048,14 +63336,22 @@
       <c r="D36">
         <v>144.78436221556001</v>
       </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
       <c r="F36">
         <v>77.633119971254104</v>
       </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
       <c r="H36" s="11"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21">
+        <v>2017</v>
+      </c>
       <c r="B37">
         <v>12</v>
       </c>
@@ -63065,14 +63361,20 @@
       <c r="D37">
         <v>3.6168044954024499</v>
       </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
       <c r="F37">
         <v>80.220890636962565</v>
       </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
       <c r="H37" s="11"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
+      <c r="A38" s="21">
         <v>2018</v>
       </c>
       <c r="B38">
@@ -63107,7 +63409,9 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21">
+        <v>2018</v>
+      </c>
       <c r="B39">
         <v>2</v>
       </c>
@@ -63140,7 +63444,9 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21">
+        <v>2018</v>
+      </c>
       <c r="B40">
         <v>3</v>
       </c>
@@ -63173,7 +63479,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21">
+        <v>2018</v>
+      </c>
       <c r="B41">
         <v>4</v>
       </c>
@@ -63206,7 +63514,9 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21">
+        <v>2018</v>
+      </c>
       <c r="B42">
         <v>5</v>
       </c>
@@ -63239,7 +63549,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21">
+        <v>2018</v>
+      </c>
       <c r="B43">
         <v>6</v>
       </c>
@@ -63266,10 +63578,14 @@
         <f t="shared" si="1"/>
         <v>129.4831199712541</v>
       </c>
-      <c r="J43" s="12"/>
+      <c r="J43" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21">
+        <v>2018</v>
+      </c>
       <c r="B44">
         <v>7</v>
       </c>
@@ -63302,7 +63618,9 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21">
+        <v>2018</v>
+      </c>
       <c r="B45">
         <v>8</v>
       </c>
@@ -63335,7 +63653,9 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21">
+        <v>2018</v>
+      </c>
       <c r="B46">
         <v>9</v>
       </c>
@@ -63368,7 +63688,9 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21">
+        <v>2018</v>
+      </c>
       <c r="B47">
         <v>10</v>
       </c>
@@ -63401,7 +63723,9 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21">
+        <v>2018</v>
+      </c>
       <c r="B48">
         <v>11</v>
       </c>
@@ -63434,7 +63758,9 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21">
+        <v>2018</v>
+      </c>
       <c r="B49">
         <v>12</v>
       </c>
@@ -63467,7 +63793,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="20">
+      <c r="A50" s="21">
         <v>2019</v>
       </c>
       <c r="B50">
@@ -63502,7 +63828,9 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21">
+        <v>2019</v>
+      </c>
       <c r="B51">
         <v>2</v>
       </c>
@@ -63535,7 +63863,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21">
+        <v>2019</v>
+      </c>
       <c r="B52">
         <v>3</v>
       </c>
@@ -63568,7 +63898,9 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21">
+        <v>2019</v>
+      </c>
       <c r="B53">
         <v>4</v>
       </c>
@@ -63601,7 +63933,9 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21">
+        <v>2019</v>
+      </c>
       <c r="B54">
         <v>5</v>
       </c>
@@ -63634,7 +63968,9 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21">
+        <v>2019</v>
+      </c>
       <c r="B55">
         <v>6</v>
       </c>
@@ -63661,10 +63997,14 @@
         <f t="shared" si="1"/>
         <v>160.8531199712541</v>
       </c>
-      <c r="J55" s="12"/>
+      <c r="J55" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21">
+        <v>2019</v>
+      </c>
       <c r="B56">
         <v>7</v>
       </c>
@@ -63697,7 +64037,9 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21">
+        <v>2019</v>
+      </c>
       <c r="B57">
         <v>8</v>
       </c>
@@ -63730,7 +64072,9 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21">
+        <v>2019</v>
+      </c>
       <c r="B58">
         <v>9</v>
       </c>
@@ -63763,7 +64107,9 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21">
+        <v>2019</v>
+      </c>
       <c r="B59">
         <v>10</v>
       </c>
@@ -63796,7 +64142,9 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21">
+        <v>2019</v>
+      </c>
       <c r="B60">
         <v>11</v>
       </c>
@@ -63829,7 +64177,9 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
+      <c r="A61" s="21">
+        <v>2019</v>
+      </c>
       <c r="B61">
         <v>12</v>
       </c>
@@ -63862,7 +64212,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="20">
+      <c r="A62" s="21">
         <v>2020</v>
       </c>
       <c r="B62">
@@ -63897,7 +64247,9 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21">
+        <v>2020</v>
+      </c>
       <c r="B63">
         <v>2</v>
       </c>
@@ -63930,7 +64282,9 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21">
+        <v>2020</v>
+      </c>
       <c r="B64">
         <v>3</v>
       </c>
@@ -63963,7 +64317,9 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21">
+        <v>2020</v>
+      </c>
       <c r="B65">
         <v>4</v>
       </c>
@@ -63996,7 +64352,9 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21">
+        <v>2020</v>
+      </c>
       <c r="B66">
         <v>5</v>
       </c>
@@ -64029,7 +64387,9 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
+      <c r="A67" s="21">
+        <v>2020</v>
+      </c>
       <c r="B67">
         <v>6</v>
       </c>
@@ -64062,7 +64422,9 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21">
+        <v>2020</v>
+      </c>
       <c r="B68">
         <v>7</v>
       </c>
@@ -64095,7 +64457,9 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21">
+        <v>2020</v>
+      </c>
       <c r="B69">
         <v>8</v>
       </c>
@@ -64128,7 +64492,9 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21">
+        <v>2020</v>
+      </c>
       <c r="B70">
         <v>9</v>
       </c>
@@ -64161,7 +64527,9 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21">
+        <v>2020</v>
+      </c>
       <c r="B71">
         <v>10</v>
       </c>
@@ -64194,7 +64562,9 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21">
+        <v>2020</v>
+      </c>
       <c r="B72">
         <v>11</v>
       </c>
@@ -64227,7 +64597,9 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21">
+        <v>2020</v>
+      </c>
       <c r="B73">
         <v>12</v>
       </c>
@@ -64260,7 +64632,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
+      <c r="A74" s="21">
         <v>2021</v>
       </c>
       <c r="B74">
@@ -64295,7 +64667,9 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21">
+        <v>2021</v>
+      </c>
       <c r="B75">
         <v>2</v>
       </c>
@@ -64328,7 +64702,9 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
+      <c r="A76" s="21">
+        <v>2021</v>
+      </c>
       <c r="B76">
         <v>3</v>
       </c>
@@ -64361,7 +64737,9 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21">
+        <v>2021</v>
+      </c>
       <c r="B77">
         <v>4</v>
       </c>
@@ -64394,7 +64772,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
+      <c r="A78" s="21">
+        <v>2021</v>
+      </c>
       <c r="B78">
         <v>5</v>
       </c>
@@ -64427,7 +64807,9 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21">
+        <v>2021</v>
+      </c>
       <c r="B79">
         <v>6</v>
       </c>
@@ -64460,7 +64842,9 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
+      <c r="A80" s="21">
+        <v>2021</v>
+      </c>
       <c r="B80">
         <v>7</v>
       </c>
@@ -64493,7 +64877,9 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21">
+        <v>2021</v>
+      </c>
       <c r="B81">
         <v>8</v>
       </c>
@@ -64526,7 +64912,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21">
+        <v>2021</v>
+      </c>
       <c r="B82">
         <v>9</v>
       </c>
@@ -64559,7 +64947,9 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21">
+        <v>2021</v>
+      </c>
       <c r="B83">
         <v>10</v>
       </c>
@@ -64592,7 +64982,9 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21">
+        <v>2021</v>
+      </c>
       <c r="B84">
         <v>11</v>
       </c>
@@ -64625,7 +65017,9 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21">
+        <v>2021</v>
+      </c>
       <c r="B85">
         <v>12</v>
       </c>
@@ -64658,7 +65052,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="20">
+      <c r="A86" s="21">
         <v>2022</v>
       </c>
       <c r="B86">
@@ -64693,7 +65087,9 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
+      <c r="A87" s="21">
+        <v>2022</v>
+      </c>
       <c r="B87">
         <v>2</v>
       </c>
@@ -64726,7 +65122,9 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21">
+        <v>2022</v>
+      </c>
       <c r="B88">
         <v>3</v>
       </c>
@@ -64759,7 +65157,9 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="20"/>
+      <c r="A89" s="21">
+        <v>2022</v>
+      </c>
       <c r="B89">
         <v>4</v>
       </c>
@@ -64783,10 +65183,15 @@
         <f t="shared" si="1"/>
         <v>77.633119971254104</v>
       </c>
-      <c r="J89" s="12"/>
+      <c r="J89" s="12">
+        <f t="shared" si="2"/>
+        <v>26.764005253430568</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21">
+        <v>2022</v>
+      </c>
       <c r="B90">
         <v>5</v>
       </c>
@@ -64813,10 +65218,14 @@
         <f t="shared" si="1"/>
         <v>124.46089063696257</v>
       </c>
-      <c r="J90" s="12"/>
+      <c r="J90" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="20"/>
+      <c r="A91" s="21">
+        <v>2022</v>
+      </c>
       <c r="B91">
         <v>6</v>
       </c>
@@ -64849,7 +65258,9 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
+      <c r="A92" s="21">
+        <v>2022</v>
+      </c>
       <c r="B92">
         <v>7</v>
       </c>
@@ -64882,7 +65293,9 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
+      <c r="A93" s="21">
+        <v>2022</v>
+      </c>
       <c r="B93">
         <v>8</v>
       </c>
@@ -64915,7 +65328,9 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
+      <c r="A94" s="21">
+        <v>2022</v>
+      </c>
       <c r="B94">
         <v>9</v>
       </c>
@@ -64948,7 +65363,9 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21">
+        <v>2022</v>
+      </c>
       <c r="B95">
         <v>10</v>
       </c>
@@ -64981,7 +65398,9 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
+      <c r="A96" s="21">
+        <v>2022</v>
+      </c>
       <c r="B96">
         <v>11</v>
       </c>
@@ -65013,8 +65432,10 @@
         <v>-33.177091402274783</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>2022</v>
+      </c>
       <c r="B97">
         <v>12</v>
       </c>
@@ -65046,29 +65467,13 @@
         <v>52.491441819033213</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="12">
-        <f>SUM(J38:J97)</f>
-        <v>1523.5083454834935</v>
-      </c>
-      <c r="K98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J99" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="A86:A97"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="A62:A73"/>
-  </mergeCells>
   <conditionalFormatting sqref="J38:J97">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -65083,4 +65488,3120 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA3F570-0F57-FD4A-9684-92ABD2981364}">
+  <dimension ref="A1:J97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>25.098505086332001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0.68764592256347401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>72.457578639837166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>0.633335732252995</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>9.8656357006706408</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>47.776651444671103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>121.06099309609201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>159.15139044806</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>154.23227265978099</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>141.62586209944601</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>112.32113744615999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>6.8063232121990103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>11.721029703819299</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>9.7303900519578796</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>1.0749731883878599</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>75.045349305545628</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>1.8783663742016401</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>7.2257295035033797</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>85.384864220786497</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>146.257849748838</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>143.40114523673299</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2016</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>166.41342720392299</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2016</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>154.52057469753501</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>142.33209227499199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>102.54856775611201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2016</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>5.4301444830654599</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>52.618893928029699</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>2.9689753001663801</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27">
+        <v>72.457578639837166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>1.3572339407192</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>13.135810096686299</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>99.414446380139594</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>133.97209273218201</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>151.73042203988899</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>165.069286062982</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>157.185609681584</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>93.562447217663106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2017</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>144.78436221556001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>3.6168044954024499</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>38.625767913007998</v>
+      </c>
+      <c r="E38">
+        <v>88.28</v>
+      </c>
+      <c r="F38">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G38">
+        <v>78.596480602249059</v>
+      </c>
+      <c r="H38">
+        <v>117.22224851525706</v>
+      </c>
+      <c r="I38">
+        <v>168.50089063696257</v>
+      </c>
+      <c r="J38">
+        <v>51.278642121705502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>0.81760621766804598</v>
+      </c>
+      <c r="E39">
+        <v>113.04</v>
+      </c>
+      <c r="F39">
+        <v>72.457578639837166</v>
+      </c>
+      <c r="G39">
+        <v>59.898124329939805</v>
+      </c>
+      <c r="H39">
+        <v>60.715730547607848</v>
+      </c>
+      <c r="I39">
+        <v>185.49757863983717</v>
+      </c>
+      <c r="J39">
+        <v>124.78184809222932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>1.40842672837145</v>
+      </c>
+      <c r="E40">
+        <v>115.63</v>
+      </c>
+      <c r="F40">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G40">
+        <v>80.498008358755087</v>
+      </c>
+      <c r="H40">
+        <v>81.906435087126539</v>
+      </c>
+      <c r="I40">
+        <v>195.85089063696256</v>
+      </c>
+      <c r="J40">
+        <v>113.94445554983602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2018</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>11.2510679986655</v>
+      </c>
+      <c r="E41">
+        <v>69.38</v>
+      </c>
+      <c r="F41">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G41">
+        <v>45.953587448895618</v>
+      </c>
+      <c r="H41">
+        <v>57.204655447561116</v>
+      </c>
+      <c r="I41">
+        <v>147.0131199712541</v>
+      </c>
+      <c r="J41">
+        <v>89.808464523692976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2018</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>57.9984132112845</v>
+      </c>
+      <c r="E42">
+        <v>55.17</v>
+      </c>
+      <c r="F42">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G42">
+        <v>2.5353703420080338</v>
+      </c>
+      <c r="H42">
+        <v>60.533783553292537</v>
+      </c>
+      <c r="I42">
+        <v>135.39089063696258</v>
+      </c>
+      <c r="J42">
+        <v>74.857107083670044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>176.89525001023</v>
+      </c>
+      <c r="E43">
+        <v>51.85</v>
+      </c>
+      <c r="F43">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>176.89525001023</v>
+      </c>
+      <c r="I43">
+        <v>129.4831199712541</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>155.01921643109901</v>
+      </c>
+      <c r="E44">
+        <v>60.13</v>
+      </c>
+      <c r="F44">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G44">
+        <v>54.827383645923739</v>
+      </c>
+      <c r="H44">
+        <v>209.84660007702274</v>
+      </c>
+      <c r="I44">
+        <v>140.35089063696256</v>
+      </c>
+      <c r="J44">
+        <v>-69.495709440060182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>31</v>
+      </c>
+      <c r="D45">
+        <v>170.08191934590701</v>
+      </c>
+      <c r="E45">
+        <v>79.88</v>
+      </c>
+      <c r="F45">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G45">
+        <v>49.281261022781159</v>
+      </c>
+      <c r="H45">
+        <v>219.36318036868818</v>
+      </c>
+      <c r="I45">
+        <v>160.10089063696256</v>
+      </c>
+      <c r="J45">
+        <v>-59.262289731725616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2018</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>162.18357283953401</v>
+      </c>
+      <c r="E46">
+        <v>105.88</v>
+      </c>
+      <c r="F46">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G46">
+        <v>52.1335526575402</v>
+      </c>
+      <c r="H46">
+        <v>214.31712549707422</v>
+      </c>
+      <c r="I46">
+        <v>183.5131199712541</v>
+      </c>
+      <c r="J46">
+        <v>-30.804005525820116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>75.832430954284106</v>
+      </c>
+      <c r="E47">
+        <v>108.73</v>
+      </c>
+      <c r="F47">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G47">
+        <v>92.382556836917743</v>
+      </c>
+      <c r="H47">
+        <v>168.21498779120185</v>
+      </c>
+      <c r="I47">
+        <v>188.95089063696258</v>
+      </c>
+      <c r="J47">
+        <v>20.735902845760734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>24.2261676714398</v>
+      </c>
+      <c r="E48">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="F48">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G48">
+        <v>93.333320715170757</v>
+      </c>
+      <c r="H48">
+        <v>117.55948838661055</v>
+      </c>
+      <c r="I48">
+        <v>159.28311997125411</v>
+      </c>
+      <c r="J48">
+        <v>41.723631584643556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2018</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>5.4027114604647197</v>
+      </c>
+      <c r="E49">
+        <v>63.88</v>
+      </c>
+      <c r="F49">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G49">
+        <v>93.333320715170757</v>
+      </c>
+      <c r="H49">
+        <v>98.736032175635472</v>
+      </c>
+      <c r="I49">
+        <v>144.10089063696256</v>
+      </c>
+      <c r="J49">
+        <v>45.364858461327088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>32.366825698833601</v>
+      </c>
+      <c r="E50">
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G50">
+        <v>88.579501323905689</v>
+      </c>
+      <c r="H50">
+        <v>120.9463270227393</v>
+      </c>
+      <c r="I50">
+        <v>164.22089063696257</v>
+      </c>
+      <c r="J50">
+        <v>43.274563614223268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
+      </c>
+      <c r="D51">
+        <v>0.91147316018330304</v>
+      </c>
+      <c r="E51">
+        <v>115.23</v>
+      </c>
+      <c r="F51">
+        <v>72.457578639837166</v>
+      </c>
+      <c r="G51">
+        <v>96.344072996305286</v>
+      </c>
+      <c r="H51">
+        <v>97.255546156488592</v>
+      </c>
+      <c r="I51">
+        <v>187.68757863983717</v>
+      </c>
+      <c r="J51">
+        <v>90.432032483348578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>0.37016588725537197</v>
+      </c>
+      <c r="E52">
+        <v>133.88</v>
+      </c>
+      <c r="F52">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G52">
+        <v>111.8732163411045</v>
+      </c>
+      <c r="H52">
+        <v>112.24338222835986</v>
+      </c>
+      <c r="I52">
+        <v>214.10089063696256</v>
+      </c>
+      <c r="J52">
+        <v>101.8575084086027</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>11.5373474141998</v>
+      </c>
+      <c r="E53">
+        <v>103.41</v>
+      </c>
+      <c r="F53">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G53">
+        <v>38.822858361998023</v>
+      </c>
+      <c r="H53">
+        <v>50.360205776197823</v>
+      </c>
+      <c r="I53">
+        <v>181.0431199712541</v>
+      </c>
+      <c r="J53">
+        <v>130.68291419505627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>80.409060229640104</v>
+      </c>
+      <c r="E54">
+        <v>77.59</v>
+      </c>
+      <c r="F54">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G54">
+        <v>7.7645716723996046</v>
+      </c>
+      <c r="H54">
+        <v>88.173631902039716</v>
+      </c>
+      <c r="I54">
+        <v>157.81089063696257</v>
+      </c>
+      <c r="J54">
+        <v>69.637258734922852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>150.019566963101</v>
+      </c>
+      <c r="E55">
+        <v>83.22</v>
+      </c>
+      <c r="F55">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>150.019566963101</v>
+      </c>
+      <c r="I55">
+        <v>160.8531199712541</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2019</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>149.485639981497</v>
+      </c>
+      <c r="E56">
+        <v>87.29</v>
+      </c>
+      <c r="F56">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G56">
+        <v>82.082614822510095</v>
+      </c>
+      <c r="H56">
+        <v>231.5682548040071</v>
+      </c>
+      <c r="I56">
+        <v>167.51089063696259</v>
+      </c>
+      <c r="J56">
+        <v>-64.057364167044511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2019</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>31</v>
+      </c>
+      <c r="D57">
+        <v>165.01011806553799</v>
+      </c>
+      <c r="E57">
+        <v>86.33</v>
+      </c>
+      <c r="F57">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G57">
+        <v>61.799652086445832</v>
+      </c>
+      <c r="H57">
+        <v>226.80977015198383</v>
+      </c>
+      <c r="I57">
+        <v>166.55089063696255</v>
+      </c>
+      <c r="J57">
+        <v>-60.258879515021277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>163.12672659798301</v>
+      </c>
+      <c r="E58">
+        <v>91.96</v>
+      </c>
+      <c r="F58">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G58">
+        <v>45.161284217018107</v>
+      </c>
+      <c r="H58">
+        <v>208.28801081500112</v>
+      </c>
+      <c r="I58">
+        <v>169.59311997125411</v>
+      </c>
+      <c r="J58">
+        <v>-38.694890843747004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <v>66.812569261354398</v>
+      </c>
+      <c r="E59">
+        <v>114.66</v>
+      </c>
+      <c r="F59">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G59">
+        <v>91.590253605040232</v>
+      </c>
+      <c r="H59">
+        <v>158.40282286639462</v>
+      </c>
+      <c r="I59">
+        <v>194.88089063696256</v>
+      </c>
+      <c r="J59">
+        <v>36.478067770567947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>141.231021418083</v>
+      </c>
+      <c r="E60">
+        <v>68.34</v>
+      </c>
+      <c r="F60">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G60">
+        <v>22.659872431696805</v>
+      </c>
+      <c r="H60">
+        <v>163.89089384977981</v>
+      </c>
+      <c r="I60">
+        <v>145.97311997125411</v>
+      </c>
+      <c r="J60">
+        <v>-17.917773878525708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>31</v>
+      </c>
+      <c r="D61">
+        <v>7.5317565876588901</v>
+      </c>
+      <c r="E61">
+        <v>68.89</v>
+      </c>
+      <c r="F61">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G61">
+        <v>83.667221286265118</v>
+      </c>
+      <c r="H61">
+        <v>91.198977873924008</v>
+      </c>
+      <c r="I61">
+        <v>149.11089063696255</v>
+      </c>
+      <c r="J61">
+        <v>57.911912763038544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>25.230724123965999</v>
+      </c>
+      <c r="E62">
+        <v>92.72</v>
+      </c>
+      <c r="F62">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G62">
+        <v>80.339547712379584</v>
+      </c>
+      <c r="H62">
+        <v>105.57027183634558</v>
+      </c>
+      <c r="I62">
+        <v>172.94089063696256</v>
+      </c>
+      <c r="J62">
+        <v>67.370618800616981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2020</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>29</v>
+      </c>
+      <c r="D63">
+        <v>4.3122829184941898</v>
+      </c>
+      <c r="E63">
+        <v>118.03</v>
+      </c>
+      <c r="F63">
+        <v>75.045349305545628</v>
+      </c>
+      <c r="G63">
+        <v>76.219570906616525</v>
+      </c>
+      <c r="H63">
+        <v>80.531853825110716</v>
+      </c>
+      <c r="I63">
+        <v>193.07534930554561</v>
+      </c>
+      <c r="J63">
+        <v>112.5434954804349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2020</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>0.94451668614143103</v>
+      </c>
+      <c r="E64">
+        <v>123.79</v>
+      </c>
+      <c r="F64">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G64">
+        <v>93.650242007921761</v>
+      </c>
+      <c r="H64">
+        <v>94.594758694063188</v>
+      </c>
+      <c r="I64">
+        <v>204.01089063696259</v>
+      </c>
+      <c r="J64">
+        <v>109.4161319428994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2020</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>11.127626695888701</v>
+      </c>
+      <c r="E65">
+        <v>83.43</v>
+      </c>
+      <c r="F65">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G65">
+        <v>39.139779654749027</v>
+      </c>
+      <c r="H65">
+        <v>50.267406350637728</v>
+      </c>
+      <c r="I65">
+        <v>161.06311997125411</v>
+      </c>
+      <c r="J65">
+        <v>110.79571362061638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2020</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>31</v>
+      </c>
+      <c r="D66">
+        <v>77.454370870306505</v>
+      </c>
+      <c r="E66">
+        <v>85.73</v>
+      </c>
+      <c r="F66">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G66">
+        <v>2.2184490492570297</v>
+      </c>
+      <c r="H66">
+        <v>79.672819919563537</v>
+      </c>
+      <c r="I66">
+        <v>165.95089063696258</v>
+      </c>
+      <c r="J66">
+        <v>86.278070717399046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2020</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>143.50636432449099</v>
+      </c>
+      <c r="E67">
+        <v>102.08</v>
+      </c>
+      <c r="F67">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G67">
+        <v>74.793425089237004</v>
+      </c>
+      <c r="H67">
+        <v>218.29978941372798</v>
+      </c>
+      <c r="I67">
+        <v>179.71311997125412</v>
+      </c>
+      <c r="J67">
+        <v>-38.586669442473863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>122.05363389252599</v>
+      </c>
+      <c r="E68">
+        <v>116.37</v>
+      </c>
+      <c r="F68">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G68">
+        <v>72.258054747228968</v>
+      </c>
+      <c r="H68">
+        <v>194.31168863975495</v>
+      </c>
+      <c r="I68">
+        <v>196.59089063696257</v>
+      </c>
+      <c r="J68">
+        <v>2.2792019972076218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2020</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>31</v>
+      </c>
+      <c r="D69">
+        <v>154.726014444653</v>
+      </c>
+      <c r="E69">
+        <v>101.39</v>
+      </c>
+      <c r="F69">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G69">
+        <v>73.684200564608489</v>
+      </c>
+      <c r="H69">
+        <v>228.41021500926149</v>
+      </c>
+      <c r="I69">
+        <v>181.61089063696255</v>
+      </c>
+      <c r="J69">
+        <v>-46.79932437229894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2020</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>149.29854946149501</v>
+      </c>
+      <c r="E70">
+        <v>116.68</v>
+      </c>
+      <c r="F70">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G70">
+        <v>56.570450756054257</v>
+      </c>
+      <c r="H70">
+        <v>205.86900021754929</v>
+      </c>
+      <c r="I70">
+        <v>194.31311997125411</v>
+      </c>
+      <c r="J70">
+        <v>-11.555880246295175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>31</v>
+      </c>
+      <c r="D71">
+        <v>148.285024644544</v>
+      </c>
+      <c r="E71">
+        <v>78.97</v>
+      </c>
+      <c r="F71">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G71">
+        <v>23.135254370823311</v>
+      </c>
+      <c r="H71">
+        <v>171.4202790153673</v>
+      </c>
+      <c r="I71">
+        <v>159.19089063696256</v>
+      </c>
+      <c r="J71">
+        <v>-12.229388378404735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2020</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>160.41735038750301</v>
+      </c>
+      <c r="E72">
+        <v>66.66</v>
+      </c>
+      <c r="F72">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G72">
+        <v>22.659872431696805</v>
+      </c>
+      <c r="H72">
+        <v>183.07722281919982</v>
+      </c>
+      <c r="I72">
+        <v>144.2931199712541</v>
+      </c>
+      <c r="J72">
+        <v>-38.784102847945718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>10.4783555571252</v>
+      </c>
+      <c r="E73">
+        <v>61.49</v>
+      </c>
+      <c r="F73">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G73">
+        <v>61.165809500943823</v>
+      </c>
+      <c r="H73">
+        <v>71.644165058069021</v>
+      </c>
+      <c r="I73">
+        <v>141.71089063696257</v>
+      </c>
+      <c r="J73">
+        <v>70.066725578893553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2021</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>31</v>
+      </c>
+      <c r="D74">
+        <v>84.345725484604898</v>
+      </c>
+      <c r="E74">
+        <v>87.09</v>
+      </c>
+      <c r="F74">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G74">
+        <v>95.23484847167677</v>
+      </c>
+      <c r="H74">
+        <v>179.58057395628168</v>
+      </c>
+      <c r="I74">
+        <v>167.31089063696257</v>
+      </c>
+      <c r="J74">
+        <v>-12.269683319319114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2021</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>28</v>
+      </c>
+      <c r="D75">
+        <v>5.4680938898880802</v>
+      </c>
+      <c r="E75">
+        <v>97.9</v>
+      </c>
+      <c r="F75">
+        <v>72.457578639837166</v>
+      </c>
+      <c r="G75">
+        <v>66.553471477710886</v>
+      </c>
+      <c r="H75">
+        <v>72.021565367598967</v>
+      </c>
+      <c r="I75">
+        <v>170.35757863983719</v>
+      </c>
+      <c r="J75">
+        <v>98.336013272238219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2021</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>31</v>
+      </c>
+      <c r="D76">
+        <v>2.8797893252509001</v>
+      </c>
+      <c r="E76">
+        <v>107.75</v>
+      </c>
+      <c r="F76">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G76">
+        <v>114.88396862223904</v>
+      </c>
+      <c r="H76">
+        <v>117.76375794748994</v>
+      </c>
+      <c r="I76">
+        <v>187.97089063696257</v>
+      </c>
+      <c r="J76">
+        <v>70.20713268947263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2021</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>6.3185346302580703</v>
+      </c>
+      <c r="E77">
+        <v>74.62</v>
+      </c>
+      <c r="F77">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G77">
+        <v>48.330497144528145</v>
+      </c>
+      <c r="H77">
+        <v>54.649031774786216</v>
+      </c>
+      <c r="I77">
+        <v>152.25311997125411</v>
+      </c>
+      <c r="J77">
+        <v>97.604088196467899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2021</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>31</v>
+      </c>
+      <c r="D78">
+        <v>29.998044295109899</v>
+      </c>
+      <c r="E78">
+        <v>65.72</v>
+      </c>
+      <c r="F78">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G78">
+        <v>11.250705892660651</v>
+      </c>
+      <c r="H78">
+        <v>41.248750187770554</v>
+      </c>
+      <c r="I78">
+        <v>145.94089063696256</v>
+      </c>
+      <c r="J78">
+        <v>104.69214044919201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2021</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <v>145.555160056793</v>
+      </c>
+      <c r="E79">
+        <v>73.11</v>
+      </c>
+      <c r="F79">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G79">
+        <v>15.529143344799209</v>
+      </c>
+      <c r="H79">
+        <v>161.08430340159219</v>
+      </c>
+      <c r="I79">
+        <v>150.74311997125409</v>
+      </c>
+      <c r="J79">
+        <v>-10.341183430338106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2021</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>31</v>
+      </c>
+      <c r="D80">
+        <v>166.602834980095</v>
+      </c>
+      <c r="E80">
+        <v>86.15</v>
+      </c>
+      <c r="F80">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G80">
+        <v>76.378031552992027</v>
+      </c>
+      <c r="H80">
+        <v>242.98086653308701</v>
+      </c>
+      <c r="I80">
+        <v>166.37089063696257</v>
+      </c>
+      <c r="J80">
+        <v>-76.609975896124439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2021</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>31</v>
+      </c>
+      <c r="D81">
+        <v>148.11262228502</v>
+      </c>
+      <c r="E81">
+        <v>107.82</v>
+      </c>
+      <c r="F81">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G81">
+        <v>65.12732566033138</v>
+      </c>
+      <c r="H81">
+        <v>213.23994794535139</v>
+      </c>
+      <c r="I81">
+        <v>188.04089063696256</v>
+      </c>
+      <c r="J81">
+        <v>-25.199057308388831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2021</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>156.16849082440899</v>
+      </c>
+      <c r="E82">
+        <v>106.08</v>
+      </c>
+      <c r="F82">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G82">
+        <v>67.345774709588397</v>
+      </c>
+      <c r="H82">
+        <v>223.51426553399739</v>
+      </c>
+      <c r="I82">
+        <v>183.71311997125412</v>
+      </c>
+      <c r="J82">
+        <v>-39.801145562743272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2021</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>95.588907192049803</v>
+      </c>
+      <c r="E83">
+        <v>84.78</v>
+      </c>
+      <c r="F83">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G83">
+        <v>48.64741843727915</v>
+      </c>
+      <c r="H83">
+        <v>144.23632562932895</v>
+      </c>
+      <c r="I83">
+        <v>165.00089063696257</v>
+      </c>
+      <c r="J83">
+        <v>20.764565007633621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2021</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>81.794465866992496</v>
+      </c>
+      <c r="E84">
+        <v>70.02</v>
+      </c>
+      <c r="F84">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G84">
+        <v>32.167511214226934</v>
+      </c>
+      <c r="H84">
+        <v>113.96197708121943</v>
+      </c>
+      <c r="I84">
+        <v>147.65311997125411</v>
+      </c>
+      <c r="J84">
+        <v>33.691142890034683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2021</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>31</v>
+      </c>
+      <c r="D85">
+        <v>2.4473862363923602</v>
+      </c>
+      <c r="E85">
+        <v>67.97</v>
+      </c>
+      <c r="F85">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G85">
+        <v>104.2671053150804</v>
+      </c>
+      <c r="H85">
+        <v>106.71449155147276</v>
+      </c>
+      <c r="I85">
+        <v>148.19089063696256</v>
+      </c>
+      <c r="J85">
+        <v>41.476399085489803</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2022</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>30.234582400701001</v>
+      </c>
+      <c r="E86">
+        <v>92.58</v>
+      </c>
+      <c r="F86">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G86">
+        <v>80.814929651506077</v>
+      </c>
+      <c r="H86">
+        <v>111.04951205220708</v>
+      </c>
+      <c r="I86">
+        <v>172.80089063696255</v>
+      </c>
+      <c r="J86">
+        <v>61.751378584755471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2022</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>28</v>
+      </c>
+      <c r="D87">
+        <v>2.80296529533492</v>
+      </c>
+      <c r="E87">
+        <v>111.3</v>
+      </c>
+      <c r="F87">
+        <v>72.457578639837166</v>
+      </c>
+      <c r="G87">
+        <v>77.011874138494036</v>
+      </c>
+      <c r="H87">
+        <v>79.814839433828951</v>
+      </c>
+      <c r="I87">
+        <v>183.75757863983716</v>
+      </c>
+      <c r="J87">
+        <v>103.94273920600821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2022</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>31</v>
+      </c>
+      <c r="D88">
+        <v>5.9497795016664803</v>
+      </c>
+      <c r="E88">
+        <v>119.59</v>
+      </c>
+      <c r="F88">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G88">
+        <v>86.519512921024159</v>
+      </c>
+      <c r="H88">
+        <v>92.469292422690643</v>
+      </c>
+      <c r="I88">
+        <v>199.81089063696257</v>
+      </c>
+      <c r="J88">
+        <v>107.34159821427193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2022</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>17.750839625343598</v>
+      </c>
+      <c r="F89">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G89">
+        <v>33.118275092479941</v>
+      </c>
+      <c r="H89">
+        <v>50.869114717823535</v>
+      </c>
+      <c r="I89">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="J89">
+        <v>26.764005253430568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2022</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>31</v>
+      </c>
+      <c r="D90">
+        <v>70.729140550729994</v>
+      </c>
+      <c r="E90">
+        <v>44.24</v>
+      </c>
+      <c r="F90">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>70.729140550729994</v>
+      </c>
+      <c r="I90">
+        <v>124.46089063696257</v>
+      </c>
+      <c r="J90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2022</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>148.566336053469</v>
+      </c>
+      <c r="E91">
+        <v>68.53</v>
+      </c>
+      <c r="F91">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G91">
+        <v>27.572152469337368</v>
+      </c>
+      <c r="H91">
+        <v>176.13848852280637</v>
+      </c>
+      <c r="I91">
+        <v>146.1631199712541</v>
+      </c>
+      <c r="J91">
+        <v>-29.975368551552265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2022</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>31</v>
+      </c>
+      <c r="D92">
+        <v>152.311560892188</v>
+      </c>
+      <c r="E92">
+        <v>95.38</v>
+      </c>
+      <c r="F92">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G92">
+        <v>83.667221286265118</v>
+      </c>
+      <c r="H92">
+        <v>235.97878217845312</v>
+      </c>
+      <c r="I92">
+        <v>175.60089063696256</v>
+      </c>
+      <c r="J92">
+        <v>-60.377891541490555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2022</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>31</v>
+      </c>
+      <c r="D93">
+        <v>158.27907776887301</v>
+      </c>
+      <c r="E93">
+        <v>95.43</v>
+      </c>
+      <c r="F93">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G93">
+        <v>82.082614822510095</v>
+      </c>
+      <c r="H93">
+        <v>240.3616925913831</v>
+      </c>
+      <c r="I93">
+        <v>175.65089063696257</v>
+      </c>
+      <c r="J93">
+        <v>-64.710801954420532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2022</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>159.056113659678</v>
+      </c>
+      <c r="E94">
+        <v>94.18</v>
+      </c>
+      <c r="F94">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G94">
+        <v>52.608934596666707</v>
+      </c>
+      <c r="H94">
+        <v>211.6650482563447</v>
+      </c>
+      <c r="I94">
+        <v>171.81311997125411</v>
+      </c>
+      <c r="J94">
+        <v>-39.851928285090594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2022</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>31</v>
+      </c>
+      <c r="D95">
+        <v>132.76571633016499</v>
+      </c>
+      <c r="E95">
+        <v>88.74</v>
+      </c>
+      <c r="F95">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G95">
+        <v>75.744188967490018</v>
+      </c>
+      <c r="H95">
+        <v>208.509905297655</v>
+      </c>
+      <c r="I95">
+        <v>168.96089063696257</v>
+      </c>
+      <c r="J95">
+        <v>-39.549014660692421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2022</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>116.346739895818</v>
+      </c>
+      <c r="E96">
+        <v>72.09</v>
+      </c>
+      <c r="F96">
+        <v>77.633119971254104</v>
+      </c>
+      <c r="G96">
+        <v>66.553471477710886</v>
+      </c>
+      <c r="H96">
+        <v>182.90021137352889</v>
+      </c>
+      <c r="I96">
+        <v>149.72311997125411</v>
+      </c>
+      <c r="J96">
+        <v>-33.177091402274783</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2022</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>31</v>
+      </c>
+      <c r="D97">
+        <v>3.1353758216240699</v>
+      </c>
+      <c r="E97">
+        <v>71.75</v>
+      </c>
+      <c r="F97">
+        <v>80.220890636962565</v>
+      </c>
+      <c r="G97">
+        <v>96.344072996305286</v>
+      </c>
+      <c r="H97">
+        <v>99.479448817929352</v>
+      </c>
+      <c r="I97">
+        <v>151.97089063696257</v>
+      </c>
+      <c r="J97">
+        <v>52.491441819033213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>